--- a/results/pvalue_OFFSIDES_rare_transporter_AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_rare_transporter_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.318</t>
+          <t>0.151</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.163</t>
+          <t>0.073</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.114</t>
+          <t>3.068</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.775</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.707</t>
+          <t>2.422</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>4.461</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.576</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
